--- a/medicine/Psychotrope/Vandal-cliche/Vandal-cliche.xlsx
+++ b/medicine/Psychotrope/Vandal-cliche/Vandal-cliche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vandal-cliche B est un cépage blanc québécois.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Ce cultivar a été obtenu en 1989 par Joseph-O. Vandal et Mario Cliche à partir des cépages grands-parents aurore, chancellor, Prince of Wales et vitis riparia[1]
-Aire géographique
-Le vignoble de Sainte-Pétronille fut le premier à en cultiver de manière commerciale. Depuis, il a été adopté par bon nombre de vignobles québécois[2] et sert notamment à l'élaboration de mistelles sur l'Île d'Orléans.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cultivar a été obtenu en 1989 par Joseph-O. Vandal et Mario Cliche à partir des cépages grands-parents aurore, chancellor, Prince of Wales et vitis riparia
 </t>
         </is>
       </c>
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractères ampélographiques</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le plant atteint à maturité une hauteur de 2 m et une largeur de 1 m.
-Il produit des grappes compactes de raisins blancs de grosseur moyenne.
+          <t>Aire géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble de Sainte-Pétronille fut le premier à en cultiver de manière commerciale. Depuis, il a été adopté par bon nombre de vignobles québécois et sert notamment à l'élaboration de mistelles sur l'Île d'Orléans.
 </t>
         </is>
       </c>
@@ -575,18 +595,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plant atteint à maturité une hauteur de 2 m et une largeur de 1 m.
+Il produit des grappes compactes de raisins blancs de grosseur moyenne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vandal-cliche</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandal-cliche</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Sa grande rusticité lui permet de résister au froid : jusqu'à -35 °C sans protection.
-Sensibilité aux maladies
-Le vandal-cliche est sensible à de multiples maladies (dont le mildiou, le chancre et l'excoriose[3]), ce qui nécessite de le cultiver sur des sites venteux et ensoleillés.
-Aptitudes œnologiques
-Le vandal-cliche est dit rustique et précoce, très productif (10 tonnes par acre[3]) et de belle maturité, ce qui le rend très adapté aux vignobles les plus septentrionaux.
-Récolté avant maturité pour éviter le goût foxé, il produit d'excellents vins aux arômes de poire, de pomme et de melon[4].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa grande rusticité lui permet de résister au froid : jusqu'à -35 °C sans protection.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vandal-cliche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandal-cliche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vandal-cliche est sensible à de multiples maladies (dont le mildiou, le chancre et l'excoriose), ce qui nécessite de le cultiver sur des sites venteux et ensoleillés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vandal-cliche</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandal-cliche</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Aptitudes œnologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vandal-cliche est dit rustique et précoce, très productif (10 tonnes par acre) et de belle maturité, ce qui le rend très adapté aux vignobles les plus septentrionaux.
+Récolté avant maturité pour éviter le goût foxé, il produit d'excellents vins aux arômes de poire, de pomme et de melon.
 </t>
         </is>
       </c>
